--- a/testfile.xlsx
+++ b/testfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Desktop\pythoncsv\xlsxMailer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{454E52BA-B6AC-4BD6-936F-1DFF795C5956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0393F068-83A2-465A-A319-32991C067A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{FAFCEAD7-3256-4B77-AAD0-F4366A95C523}"/>
+    <workbookView xWindow="10290" yWindow="7965" windowWidth="23385" windowHeight="10755" activeTab="1" xr2:uid="{FAFCEAD7-3256-4B77-AAD0-F4366A95C523}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
-    <t>sheet</t>
-  </si>
-  <si>
     <t>data1</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>data5</t>
+  </si>
+  <si>
+    <t>site</t>
   </si>
 </sst>
 </file>
@@ -415,29 +415,32 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,7 +594,7 @@
         <v>84</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -748,32 +751,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8383ADB-036B-493C-A7C3-E084809B3A9B}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U28:U30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,7 +981,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1010,7 +1013,7 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>48</v>
@@ -1094,6 +1097,46 @@
       </c>
       <c r="F17">
         <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
